--- a/data/trans_dic/P44A$sangre-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P44A$sangre-Clase-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.1507860073441529</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.6167642704432682</v>
+        <v>0.6167642704432683</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.1428003833635334</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.7160672233531659</v>
+        <v>0.7160672233531657</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.2185108265877858</v>
@@ -664,7 +664,7 @@
         <v>0.1110005746790699</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.6543666857556332</v>
+        <v>0.6543666857556331</v>
       </c>
     </row>
     <row r="5">
@@ -675,29 +675,29 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.100187802485042</v>
+        <v>0.1016836664634348</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05297680328913413</v>
+        <v>0.05852987398586762</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.536845501633882</v>
+        <v>0.5410715093009537</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.6295807444057994</v>
+        <v>0.6331172642031786</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0909112290526576</v>
+        <v>0.08747637278905633</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03669448589849092</v>
+        <v>0.0272724740137491</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6005753811933591</v>
+        <v>0.5994066839165922</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.548959923236007</v>
+        <v>0.5374348172622362</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3673924755068823</v>
+        <v>0.3404804579549729</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6855634771562037</v>
+        <v>0.6931252125599641</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3959758089561797</v>
+        <v>0.4029784666839368</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.7875128142144652</v>
+        <v>0.7862796356371233</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.409767603007396</v>
+        <v>0.3859692031912443</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2787611270439107</v>
+        <v>0.2537373336748986</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7075300260904631</v>
+        <v>0.7099545708526634</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1503618689137114</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6456608426871441</v>
+        <v>0.645660842687144</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.7235022598437373</v>
+        <v>0.7235022598437375</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.08243713161128084</v>
@@ -783,24 +783,24 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04037189403346557</v>
+        <v>0.03850586670266636</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5454370350678346</v>
+        <v>0.5511235712623755</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="n">
-        <v>0.6279048787537644</v>
+        <v>0.6299967655571251</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03075191577302431</v>
+        <v>0.03160922409650533</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6071995369076205</v>
+        <v>0.6065457881756207</v>
       </c>
     </row>
     <row r="9">
@@ -811,27 +811,27 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3694880287042424</v>
+        <v>0.3493400747623892</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3388748257841241</v>
+        <v>0.3226236240770746</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7335738033471773</v>
+        <v>0.7335591793878952</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.8122412987921687</v>
+        <v>0.813191228568894</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2600031691196292</v>
+        <v>0.2489486051963804</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.294908766737136</v>
+        <v>0.2884067565130152</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7409576573650556</v>
+        <v>0.7442618894161281</v>
       </c>
     </row>
     <row r="10">
@@ -852,7 +852,7 @@
         <v>0.0558572710365734</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6291393587144767</v>
+        <v>0.6291393587144763</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.09874327637940622</v>
@@ -870,7 +870,7 @@
         <v>0.04462185695203733</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.661764368819769</v>
+        <v>0.6617643688197691</v>
       </c>
     </row>
     <row r="11">
@@ -881,29 +881,29 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1824512334837278</v>
+        <v>0.1979786505499705</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.549174430184529</v>
+        <v>0.5293135972095304</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.6207527629652784</v>
+        <v>0.621791327399757</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1533109670073979</v>
+        <v>0.1507468343059326</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5857840320921696</v>
+        <v>0.5902448779686602</v>
       </c>
     </row>
     <row r="12">
@@ -914,29 +914,29 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5716739875290174</v>
+        <v>0.5763317638305174</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.230027497495429</v>
+        <v>0.2320167694467365</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7178511519792978</v>
+        <v>0.7121189396038633</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4607288684642267</v>
+        <v>0.4616921141667641</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.8472350835493171</v>
+        <v>0.8409955245620174</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4847369863643989</v>
+        <v>0.4580769426103639</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2097575109350226</v>
+        <v>0.2060058525989202</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7273640819785159</v>
+        <v>0.7363198033436896</v>
       </c>
     </row>
     <row r="13">
@@ -966,7 +966,7 @@
         <v>0.1252312913453259</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.6578732995803419</v>
+        <v>0.6578732995803418</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.06222311932804671</v>
@@ -989,28 +989,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02015079485011301</v>
+        <v>0.02207010959797051</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5985584174513852</v>
+        <v>0.5981624438102207</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03867886393024604</v>
+        <v>0.03878784821049407</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5835180599564267</v>
+        <v>0.5810062521509816</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02007522460848641</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04016168548971746</v>
+        <v>0.04176481017317446</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6106719323675228</v>
+        <v>0.6051341908649852</v>
       </c>
     </row>
     <row r="15">
@@ -1021,31 +1021,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1972488897543957</v>
+        <v>0.1983066007031506</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1838452227865825</v>
+        <v>0.1892262521065433</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7333763255014065</v>
+        <v>0.7245681262193362</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.305328383771083</v>
+        <v>0.3766527248004355</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3096384117139775</v>
+        <v>0.3538563365974375</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7250593415806299</v>
+        <v>0.7263443168707479</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1692288032201484</v>
+        <v>0.1638706225497805</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1776293167198865</v>
+        <v>0.1829910353246879</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7111929605979833</v>
+        <v>0.7095012260207437</v>
       </c>
     </row>
     <row r="16">
@@ -1066,7 +1066,7 @@
         <v>0.1212228508703009</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6592700775423471</v>
+        <v>0.659270077542347</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.07267578092539148</v>
@@ -1075,7 +1075,7 @@
         <v>0.08096396987190453</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.7092751861025018</v>
+        <v>0.7092751861025016</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.0552865460406638</v>
@@ -1084,7 +1084,7 @@
         <v>0.09943633268985744</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.6903700453510206</v>
+        <v>0.6903700453510205</v>
       </c>
     </row>
     <row r="17">
@@ -1096,10 +1096,10 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.03776914480015341</v>
+        <v>0.03750157291294102</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5516061496754111</v>
+        <v>0.565315023948744</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6470377946125608</v>
+        <v>0.6461238640969903</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03469583653540764</v>
+        <v>0.03753832766193342</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6324081876990864</v>
+        <v>0.6330496694425032</v>
       </c>
     </row>
     <row r="18">
@@ -1129,28 +1129,28 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.3189716785362433</v>
+        <v>0.3002658035380813</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.748289331176574</v>
+        <v>0.7628123157338573</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.230610940842897</v>
+        <v>0.2267032081708655</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2456493153357024</v>
+        <v>0.263575883325599</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7701867722836088</v>
+        <v>0.7716257061260262</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1650086346342397</v>
+        <v>0.1713421101138738</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.219855003464421</v>
+        <v>0.2060922797908168</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7358519005330717</v>
+        <v>0.7421230112195651</v>
       </c>
     </row>
     <row r="19">
@@ -1176,7 +1176,7 @@
         <v>0.1088450516570138</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.7068321090343701</v>
+        <v>0.70683210903437</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.09702646821456426</v>
@@ -1185,7 +1185,7 @@
         <v>0.1088450516570138</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.7075911799966751</v>
+        <v>0.7075911799966749</v>
       </c>
     </row>
     <row r="20">
@@ -1198,25 +1198,25 @@
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>0.2188154496387836</v>
+        <v>0.213655147900459</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03053201910685221</v>
+        <v>0.03111218217151716</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02804951642568753</v>
+        <v>0.02532888967026047</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6448286654664581</v>
+        <v>0.6445020800875446</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03053201910685221</v>
+        <v>0.03111218217151716</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02804951642568753</v>
+        <v>0.02532888967026047</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.6436279213165169</v>
+        <v>0.6405839978165367</v>
       </c>
     </row>
     <row r="21">
@@ -1232,22 +1232,22 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2347757764652546</v>
+        <v>0.2636968184173117</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2328858080745526</v>
+        <v>0.2376191372767551</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7625352627815624</v>
+        <v>0.7609036051571174</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2347757764652546</v>
+        <v>0.2636968184173117</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2328858080745526</v>
+        <v>0.2376191372767551</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7655729116136746</v>
+        <v>0.7611665524975764</v>
       </c>
     </row>
     <row r="22">
@@ -1268,7 +1268,7 @@
         <v>0.1069266918406879</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6432256546986675</v>
+        <v>0.6432256546986673</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.0863704438679033</v>
@@ -1277,7 +1277,7 @@
         <v>0.08315726736740427</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.7044447332592517</v>
+        <v>0.7044447332592515</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.1337457731236095</v>
@@ -1286,7 +1286,7 @@
         <v>0.09697960760770877</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.6725776707352791</v>
+        <v>0.672577670735279</v>
       </c>
     </row>
     <row r="23">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1180859352093026</v>
+        <v>0.1086303365816594</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06350833870925576</v>
+        <v>0.06536828087019228</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6053485463967311</v>
+        <v>0.6076753410532055</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03975079585916152</v>
+        <v>0.03885153621050397</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03812495555665089</v>
+        <v>0.03753504323762398</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.673009339025975</v>
+        <v>0.6731051665625397</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.09032717546933169</v>
+        <v>0.09138691944694029</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.06583358189679323</v>
+        <v>0.06667470946229898</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6478546956323107</v>
+        <v>0.6467053845011355</v>
       </c>
     </row>
     <row r="24">
@@ -1332,31 +1332,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2761650696482835</v>
+        <v>0.2687090128865383</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1624571092941199</v>
+        <v>0.1672472178264327</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6787993332311691</v>
+        <v>0.6798231309081807</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1487604165327919</v>
+        <v>0.1510509548888736</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1510566755853584</v>
+        <v>0.1448638923590156</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7306585428112033</v>
+        <v>0.7348630056353019</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.189535308934284</v>
+        <v>0.1923697199292184</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.143099238397966</v>
+        <v>0.1411938417997251</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6972991680773383</v>
+        <v>0.6974189945572282</v>
       </c>
     </row>
     <row r="25">
@@ -1587,29 +1587,29 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1919</v>
+        <v>1948</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1639</v>
+        <v>1811</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>73191</v>
+        <v>73767</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>52311</v>
+        <v>52604</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2957</v>
+        <v>2846</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1542</v>
+        <v>1146</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>131780</v>
+        <v>131524</v>
       </c>
     </row>
     <row r="7">
@@ -1620,29 +1620,29 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10515</v>
+        <v>10294</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11366</v>
+        <v>10533</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>93466</v>
+        <v>94497</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5296</v>
+        <v>5389</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>65433</v>
+        <v>65330</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>13329</v>
+        <v>12555</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>11715</v>
+        <v>10664</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>155248</v>
+        <v>155780</v>
       </c>
     </row>
     <row r="8">
@@ -1730,24 +1730,24 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1088</v>
+        <v>1038</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>46893</v>
+        <v>47382</v>
       </c>
       <c r="F10" s="6" t="inlineStr"/>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="n">
-        <v>34542</v>
+        <v>34657</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>992</v>
+        <v>1020</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>85606</v>
+        <v>85514</v>
       </c>
     </row>
     <row r="11">
@@ -1758,27 +1758,27 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5996</v>
+        <v>5669</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9132</v>
+        <v>8694</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>63068</v>
+        <v>63067</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>44682</v>
+        <v>44734</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6380</v>
+        <v>6108</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>9515</v>
+        <v>9305</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>104464</v>
+        <v>104930</v>
       </c>
     </row>
     <row r="12">
@@ -1863,29 +1863,29 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5344</v>
+        <v>5798</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>50215</v>
+        <v>48399</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>22360</v>
+        <v>22397</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6162</v>
+        <v>6059</v>
       </c>
       <c r="J14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>74663</v>
+        <v>75231</v>
       </c>
     </row>
     <row r="15">
@@ -1896,29 +1896,29 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16743</v>
+        <v>16880</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6718</v>
+        <v>6776</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>65639</v>
+        <v>65115</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5023</v>
+        <v>5033</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>30517</v>
+        <v>30293</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>19482</v>
+        <v>18410</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7668</v>
+        <v>7531</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>92708</v>
+        <v>93850</v>
       </c>
     </row>
     <row r="16">
@@ -2006,28 +2006,28 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>995</v>
+        <v>1089</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>104085</v>
+        <v>104016</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>54572</v>
+        <v>54337</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2958</v>
+        <v>3076</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>163302</v>
+        <v>161821</v>
       </c>
     </row>
     <row r="19">
@@ -2038,31 +2038,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7145</v>
+        <v>7184</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>9074</v>
+        <v>9339</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>127529</v>
+        <v>125997</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>4423</v>
+        <v>5456</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7526</v>
+        <v>8600</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>67809</v>
+        <v>67929</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>8582</v>
+        <v>8310</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>13084</v>
+        <v>13479</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>190183</v>
+        <v>189731</v>
       </c>
     </row>
     <row r="20">
@@ -2148,10 +2148,10 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>40255</v>
+        <v>41256</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
@@ -2160,16 +2160,16 @@
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>77679</v>
+        <v>77569</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1757</v>
+        <v>1901</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>122074</v>
+        <v>122198</v>
       </c>
     </row>
     <row r="23">
@@ -2181,28 +2181,28 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>7413</v>
+        <v>6978</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>54609</v>
+        <v>55669</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>6210</v>
+        <v>6105</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>6733</v>
+        <v>7225</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>92463</v>
+        <v>92636</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5841</v>
+        <v>6066</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>11136</v>
+        <v>10439</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>142042</v>
+        <v>143253</v>
       </c>
     </row>
     <row r="24">
@@ -2285,25 +2285,25 @@
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>976</v>
+        <v>994</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1106</v>
+        <v>999</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>85262</v>
+        <v>85219</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>976</v>
+        <v>994</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1106</v>
+        <v>999</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>87581</v>
+        <v>87167</v>
       </c>
     </row>
     <row r="27">
@@ -2319,22 +2319,22 @@
         <v>3850</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7503</v>
+        <v>8427</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>9185</v>
+        <v>9372</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>100825</v>
+        <v>100610</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>7503</v>
+        <v>8427</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>9185</v>
+        <v>9372</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>104175</v>
+        <v>103575</v>
       </c>
     </row>
     <row r="28">
@@ -2419,31 +2419,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>12915</v>
+        <v>11880</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>10141</v>
+        <v>10438</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>341699</v>
+        <v>343013</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>4212</v>
+        <v>4117</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>4381</v>
+        <v>4313</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>349909</v>
+        <v>349959</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>19450</v>
+        <v>19678</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>18078</v>
+        <v>18309</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>702523</v>
+        <v>701277</v>
       </c>
     </row>
     <row r="31">
@@ -2454,31 +2454,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>30203</v>
+        <v>29388</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>25942</v>
+        <v>26707</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>383160</v>
+        <v>383738</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>15763</v>
+        <v>16005</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>17359</v>
+        <v>16647</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>379882</v>
+        <v>382068</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>40812</v>
+        <v>41422</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>39295</v>
+        <v>38772</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>756140</v>
+        <v>756270</v>
       </c>
     </row>
     <row r="32">
